--- a/sampleProjectLink.xlsx
+++ b/sampleProjectLink.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sample</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>http://ideveloperworld.blogspot.in/2011/02/epub-reader.html</t>
+  </si>
+  <si>
+    <t>keyboard Manger</t>
+  </si>
+  <si>
+    <t>https://github.com/hackiftekhar/IQKeyboardManager</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -421,6 +427,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/sampleProjectLink.xlsx
+++ b/sampleProjectLink.xlsx
@@ -33,20 +33,27 @@
     <t>http://ideveloperworld.blogspot.in/2011/02/epub-reader.html</t>
   </si>
   <si>
-    <t>keyboard Manger</t>
-  </si>
-  <si>
-    <t>https://github.com/hackiftekhar/IQKeyboardManager</t>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>https://github.com/UrbanApps/UAModalPanel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,32 +416,32 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/sampleProjectLink.xlsx
+++ b/sampleProjectLink.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sample</t>
   </si>
@@ -37,13 +37,19 @@
   </si>
   <si>
     <t>https://github.com/UrbanApps/UAModalPanel</t>
+  </si>
+  <si>
+    <t>Sliding Menu</t>
+  </si>
+  <si>
+    <t>https://github.com/devindoty/DDMenuController</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,10 +58,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="20">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -437,12 +452,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
